--- a/IA/sentimentos.xlsx
+++ b/IA/sentimentos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="1132">
   <si>
     <t>frase</t>
   </si>
@@ -3415,6 +3415,9 @@
   </si>
   <si>
     <t>Fico imensamente feliz quando as coisas fogem do controle</t>
+  </si>
+  <si>
+    <t>Eu odeio quanto ele maltrata criança</t>
   </si>
 </sst>
 </file>
@@ -3433,6 +3436,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3786,10 +3790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1927"/>
+  <dimension ref="A1:B1928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1901" workbookViewId="0">
-      <selection activeCell="B1929" sqref="B1929"/>
+    <sheetView tabSelected="1" topLeftCell="A1913" workbookViewId="0">
+      <selection activeCell="B1931" sqref="B1931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19214,6 +19218,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IA/sentimentos.xlsx
+++ b/IA/sentimentos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="1232">
   <si>
     <t>frase</t>
   </si>
@@ -3418,6 +3418,306 @@
   </si>
   <si>
     <t>Eu odeio quanto ele maltrata criança</t>
+  </si>
+  <si>
+    <t>Eu já cansei de tentar fazer tudo dar certo sozinho.</t>
+  </si>
+  <si>
+    <t>Impressionante como algumas pessoas só aparecem para atrapalhar.</t>
+  </si>
+  <si>
+    <t>Nada irrita mais do que repetir a mesma coisa e ninguém ouvir.</t>
+  </si>
+  <si>
+    <t>Já passou da hora de alguém assumir a responsabilidade.</t>
+  </si>
+  <si>
+    <t>Eu estou exausto de ser sempre o paciente da história.</t>
+  </si>
+  <si>
+    <t>Que raiva de quem promete e nunca cumpre.</t>
+  </si>
+  <si>
+    <t>Tô farto de ser colocado em segundo plano.</t>
+  </si>
+  <si>
+    <t>Não dá pra acreditar que isso aconteceu de novo.</t>
+  </si>
+  <si>
+    <t>Quando eu preciso, ninguém está por perto.</t>
+  </si>
+  <si>
+    <t>Chega! Eu não vou continuar fingindo que está tudo bem.</t>
+  </si>
+  <si>
+    <t>Que absurdo ter que lidar com isso mais uma vez.</t>
+  </si>
+  <si>
+    <t>É irritante como tudo vira um problema.</t>
+  </si>
+  <si>
+    <t>Já perdi a paciência com essa situação.</t>
+  </si>
+  <si>
+    <t>Nada pior do que gente que fala e não faz.</t>
+  </si>
+  <si>
+    <t>Eu tô no meu limite com essa confusão toda.</t>
+  </si>
+  <si>
+    <t>É revoltante ver as pessoas agindo como se nada tivesse acontecido.</t>
+  </si>
+  <si>
+    <t>Isso foi completamente desnecessário.</t>
+  </si>
+  <si>
+    <t>Se eu soubesse que ia ser assim, nem teria começado.</t>
+  </si>
+  <si>
+    <t>Estou cansado de ser o único que se importa.</t>
+  </si>
+  <si>
+    <t>Que falta de respeito!</t>
+  </si>
+  <si>
+    <t>Não dá mais para engolir isso calado.</t>
+  </si>
+  <si>
+    <t>Inacreditável como conseguem complicar o simples.</t>
+  </si>
+  <si>
+    <t>É de tirar qualquer um do sério.</t>
+  </si>
+  <si>
+    <t>Estou farto dessa enrolação.</t>
+  </si>
+  <si>
+    <t>De novo? Sério que isso está acontecendo de novo?</t>
+  </si>
+  <si>
+    <t>Parece que ninguém leva nada a sério.</t>
+  </si>
+  <si>
+    <t>Tô cansado de desculpas esfarrapadas.</t>
+  </si>
+  <si>
+    <t>E mais uma vez, eu que tenho que resolver tudo.</t>
+  </si>
+  <si>
+    <t>Isso passa dos limites.</t>
+  </si>
+  <si>
+    <t>Estou perdendo a paciência rapidinho.</t>
+  </si>
+  <si>
+    <t>É tão difícil fazer as coisas direito?</t>
+  </si>
+  <si>
+    <t>Não aguento mais tanta irresponsabilidade.</t>
+  </si>
+  <si>
+    <t>Que raiva ter que lidar com o mesmo problema repetidamente.</t>
+  </si>
+  <si>
+    <t>Como conseguem ser tão negligentes?</t>
+  </si>
+  <si>
+    <t>Sinceramente, isso já virou falta de consideração.</t>
+  </si>
+  <si>
+    <t>Chega de ser tratado como bobo.</t>
+  </si>
+  <si>
+    <t>É frustrante ver tudo desmoronando por descuido.</t>
+  </si>
+  <si>
+    <t>Já deu! Não dá pra continuar assim.</t>
+  </si>
+  <si>
+    <t>Eu estou realmente incomodado com tudo isso.</t>
+  </si>
+  <si>
+    <t>Por que é tão difícil cooperar?</t>
+  </si>
+  <si>
+    <t>Isso é ridículo e cansativo.</t>
+  </si>
+  <si>
+    <t>Eu não mereço lidar com esse tipo de coisa.</t>
+  </si>
+  <si>
+    <t>Incomoda ver tanta falta de atenção.</t>
+  </si>
+  <si>
+    <t>Que raiva dessa bagunça interminável.</t>
+  </si>
+  <si>
+    <t>Já não tenho mais paciência para isso.</t>
+  </si>
+  <si>
+    <t>É absurdo esperar tanto por algo tão simples.</t>
+  </si>
+  <si>
+    <t>Eu cansei de avisar e ninguém faz nada.</t>
+  </si>
+  <si>
+    <t>Isso é completamente inaceitável.</t>
+  </si>
+  <si>
+    <t>Eu estou sinceramente irritado com tudo isso.</t>
+  </si>
+  <si>
+    <t>Parece que não se importam nem um pouco.</t>
+  </si>
+  <si>
+    <t>Não dá para continuar fingindo que está tudo normal.</t>
+  </si>
+  <si>
+    <t>Mais uma vez sou deixado de lado.</t>
+  </si>
+  <si>
+    <t>Não sei como conseguem ser tão egoístas.</t>
+  </si>
+  <si>
+    <t>A falta de comprometimento chega a ser ofensiva.</t>
+  </si>
+  <si>
+    <t>Que raiva ver tudo ser feito pela metade.</t>
+  </si>
+  <si>
+    <t>É frustrante saber que podia ser diferente.</t>
+  </si>
+  <si>
+    <t>Já estou cansado de promessas vazias.</t>
+  </si>
+  <si>
+    <t>Isso foi um desrespeito enorme.</t>
+  </si>
+  <si>
+    <t>É inacreditável o tamanho da negligência.</t>
+  </si>
+  <si>
+    <t>Não dá pra lidar com tanta teimosia.</t>
+  </si>
+  <si>
+    <t>Eu não deveria precisar repetir isso.</t>
+  </si>
+  <si>
+    <t>Parece que fazem de propósito para irritar.</t>
+  </si>
+  <si>
+    <t>Que raiva dessa falta de organização.</t>
+  </si>
+  <si>
+    <t>Tô cansado de receber metade do esforço.</t>
+  </si>
+  <si>
+    <t>É desgastante lidar com tanta contradição.</t>
+  </si>
+  <si>
+    <t>Já não sei mais o que esperar.</t>
+  </si>
+  <si>
+    <t>É difícil manter a calma assim.</t>
+  </si>
+  <si>
+    <t>Isso realmente me tirou do sério.</t>
+  </si>
+  <si>
+    <t>Estou completamente frustrado com essa situação.</t>
+  </si>
+  <si>
+    <t>É irritante ver tudo sendo ignorado.</t>
+  </si>
+  <si>
+    <t>Chega, eu preciso de um pouco de respeito.</t>
+  </si>
+  <si>
+    <t>Que saco ter que lidar com isso sozinho.</t>
+  </si>
+  <si>
+    <t>Nunca vi tanta falta de bom senso.</t>
+  </si>
+  <si>
+    <t>Eu já perdi toda a paciência.</t>
+  </si>
+  <si>
+    <t>Isso não tinha por que ter acontecido.</t>
+  </si>
+  <si>
+    <t>É revoltante ver tamanha injustiça.</t>
+  </si>
+  <si>
+    <t>Eu estou no limite com esses erros repetidos.</t>
+  </si>
+  <si>
+    <t>É insuportável essa falta de organização.</t>
+  </si>
+  <si>
+    <t>Tô farto de ser deixado na mão.</t>
+  </si>
+  <si>
+    <t>Isso é mais um motivo para eu ficar irritado.</t>
+  </si>
+  <si>
+    <t>Não aguento mais essa enrolação toda.</t>
+  </si>
+  <si>
+    <t>Que raiva desse descaso.</t>
+  </si>
+  <si>
+    <t>É frustrante ver tudo dando errado por descuido.</t>
+  </si>
+  <si>
+    <t>Eu esperava muito mais do que isso.</t>
+  </si>
+  <si>
+    <t>Isso me irrita profundamente.</t>
+  </si>
+  <si>
+    <t>Sério, isso já virou palhaçada.</t>
+  </si>
+  <si>
+    <t>Eu não vou continuar aceitando isso.</t>
+  </si>
+  <si>
+    <t>É inacreditável como conseguem complicar tudo.</t>
+  </si>
+  <si>
+    <t>Já chega dessa desordem.</t>
+  </si>
+  <si>
+    <t>Isso me deixou verdadeiramente irritado.</t>
+  </si>
+  <si>
+    <t>É cansativo demais lidar com isso sempre.</t>
+  </si>
+  <si>
+    <t>Não dá pra acreditar na falta de responsabilidade.</t>
+  </si>
+  <si>
+    <t>Estou cheio dessas atitudes sem sentido.</t>
+  </si>
+  <si>
+    <t>Isso ultrapassa qualquer limite.</t>
+  </si>
+  <si>
+    <t>Tô cansado de ser tratado como se não importasse.</t>
+  </si>
+  <si>
+    <t>Isso já virou frustração acumulada.</t>
+  </si>
+  <si>
+    <t>É irritante ver tudo sendo feito de qualquer jeito.</t>
+  </si>
+  <si>
+    <t>Honestamente, isso me deixou com muita raiva.</t>
+  </si>
+  <si>
+    <t>É incrível como falta consideração nos mínimos detalhes</t>
+  </si>
+  <si>
+    <t>É irritante depender de quem não quer ajudar</t>
   </si>
 </sst>
 </file>
@@ -3790,10 +4090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1928"/>
+  <dimension ref="A1:B2028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1913" workbookViewId="0">
-      <selection activeCell="B1931" sqref="B1931"/>
+    <sheetView tabSelected="1" topLeftCell="A2018" workbookViewId="0">
+      <selection activeCell="A2029" sqref="A2029"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19226,6 +19526,806 @@
         <v>311</v>
       </c>
     </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1933" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1934" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1935" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1936" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1937" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1939" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1941" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1942" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1943" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1944" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1945" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1946" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1948" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1949" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1952" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1959" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1960" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1966" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1968" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1969" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1970" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1971" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1972" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1973" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1974" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1975" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1976" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1977" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1978" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1979" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1980" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1981" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1982" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1983" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1984" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1985" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1986" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1987" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1988" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1989" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1990" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1991" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1992" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1993" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1994" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1995" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1996" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1997" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1998" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1999" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2000" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2001" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2002" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2003" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2004" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2005" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2006" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2007" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2008" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2009" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2010" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2011" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2012" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2013" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2014" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2015" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2016" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2017" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2018" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2019" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2020" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2021" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2022" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2023" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2024" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2025" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2026" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2027" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2028" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
